--- a/text/game-text.xlsx
+++ b/text/game-text.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="63">
   <si>
     <t xml:space="preserve">080E</t>
   </si>
@@ -227,6 +227,13 @@
   <si>
     <t xml:space="preserve">!
 2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B
+0B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(alt)</t>
   </si>
   <si>
     <t xml:space="preserve">S
@@ -274,7 +281,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,7 +291,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEE6EF"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFDEE6EF"/>
       </patternFill>
     </fill>
   </fills>
@@ -322,7 +335,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -347,7 +360,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -363,7 +384,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -428,10 +449,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:Z31"/>
+  <dimension ref="A2:AMH35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -939,7 +960,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1025,93 +1046,1195 @@
       <c r="E29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="n">
-        <v>24</v>
+      <c r="F29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="I29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="G30" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="H30" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="R30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S29" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="S30" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="T30" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="U30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="V30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="W30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="X29" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y29" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z29" s="3" t="n">
+      <c r="X30" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y30" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z30" s="8" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="3"/>
-      <c r="Z30" s="3"/>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F31" s="3"/>
+      <c r="Z31" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="3" t="s">
+    <row r="32" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="35" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0"/>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="0"/>
+      <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
+      <c r="T35" s="0"/>
+      <c r="U35" s="0"/>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0"/>
+      <c r="X35" s="0"/>
+      <c r="Y35" s="0"/>
+      <c r="Z35" s="0"/>
+      <c r="AA35" s="0"/>
+      <c r="AB35" s="0"/>
+      <c r="AC35" s="0"/>
+      <c r="AD35" s="0"/>
+      <c r="AE35" s="0"/>
+      <c r="AF35" s="0"/>
+      <c r="AG35" s="0"/>
+      <c r="AH35" s="0"/>
+      <c r="AI35" s="0"/>
+      <c r="AJ35" s="0"/>
+      <c r="AK35" s="0"/>
+      <c r="AL35" s="0"/>
+      <c r="AM35" s="0"/>
+      <c r="AN35" s="0"/>
+      <c r="AO35" s="0"/>
+      <c r="AP35" s="0"/>
+      <c r="AQ35" s="0"/>
+      <c r="AR35" s="0"/>
+      <c r="AS35" s="0"/>
+      <c r="AT35" s="0"/>
+      <c r="AU35" s="0"/>
+      <c r="AV35" s="0"/>
+      <c r="AW35" s="0"/>
+      <c r="AX35" s="0"/>
+      <c r="AY35" s="0"/>
+      <c r="AZ35" s="0"/>
+      <c r="BA35" s="0"/>
+      <c r="BB35" s="0"/>
+      <c r="BC35" s="0"/>
+      <c r="BD35" s="0"/>
+      <c r="BE35" s="0"/>
+      <c r="BF35" s="0"/>
+      <c r="BG35" s="0"/>
+      <c r="BH35" s="0"/>
+      <c r="BI35" s="0"/>
+      <c r="BJ35" s="0"/>
+      <c r="BK35" s="0"/>
+      <c r="BL35" s="0"/>
+      <c r="BM35" s="0"/>
+      <c r="BN35" s="0"/>
+      <c r="BO35" s="0"/>
+      <c r="BP35" s="0"/>
+      <c r="BQ35" s="0"/>
+      <c r="BR35" s="0"/>
+      <c r="BS35" s="0"/>
+      <c r="BT35" s="0"/>
+      <c r="BU35" s="0"/>
+      <c r="BV35" s="0"/>
+      <c r="BW35" s="0"/>
+      <c r="BX35" s="0"/>
+      <c r="BY35" s="0"/>
+      <c r="BZ35" s="0"/>
+      <c r="CA35" s="0"/>
+      <c r="CB35" s="0"/>
+      <c r="CC35" s="0"/>
+      <c r="CD35" s="0"/>
+      <c r="CE35" s="0"/>
+      <c r="CF35" s="0"/>
+      <c r="CG35" s="0"/>
+      <c r="CH35" s="0"/>
+      <c r="CI35" s="0"/>
+      <c r="CJ35" s="0"/>
+      <c r="CK35" s="0"/>
+      <c r="CL35" s="0"/>
+      <c r="CM35" s="0"/>
+      <c r="CN35" s="0"/>
+      <c r="CO35" s="0"/>
+      <c r="CP35" s="0"/>
+      <c r="CQ35" s="0"/>
+      <c r="CR35" s="0"/>
+      <c r="CS35" s="0"/>
+      <c r="CT35" s="0"/>
+      <c r="CU35" s="0"/>
+      <c r="CV35" s="0"/>
+      <c r="CW35" s="0"/>
+      <c r="CX35" s="0"/>
+      <c r="CY35" s="0"/>
+      <c r="CZ35" s="0"/>
+      <c r="DA35" s="0"/>
+      <c r="DB35" s="0"/>
+      <c r="DC35" s="0"/>
+      <c r="DD35" s="0"/>
+      <c r="DE35" s="0"/>
+      <c r="DF35" s="0"/>
+      <c r="DG35" s="0"/>
+      <c r="DH35" s="0"/>
+      <c r="DI35" s="0"/>
+      <c r="DJ35" s="0"/>
+      <c r="DK35" s="0"/>
+      <c r="DL35" s="0"/>
+      <c r="DM35" s="0"/>
+      <c r="DN35" s="0"/>
+      <c r="DO35" s="0"/>
+      <c r="DP35" s="0"/>
+      <c r="DQ35" s="0"/>
+      <c r="DR35" s="0"/>
+      <c r="DS35" s="0"/>
+      <c r="DT35" s="0"/>
+      <c r="DU35" s="0"/>
+      <c r="DV35" s="0"/>
+      <c r="DW35" s="0"/>
+      <c r="DX35" s="0"/>
+      <c r="DY35" s="0"/>
+      <c r="DZ35" s="0"/>
+      <c r="EA35" s="0"/>
+      <c r="EB35" s="0"/>
+      <c r="EC35" s="0"/>
+      <c r="ED35" s="0"/>
+      <c r="EE35" s="0"/>
+      <c r="EF35" s="0"/>
+      <c r="EG35" s="0"/>
+      <c r="EH35" s="0"/>
+      <c r="EI35" s="0"/>
+      <c r="EJ35" s="0"/>
+      <c r="EK35" s="0"/>
+      <c r="EL35" s="0"/>
+      <c r="EM35" s="0"/>
+      <c r="EN35" s="0"/>
+      <c r="EO35" s="0"/>
+      <c r="EP35" s="0"/>
+      <c r="EQ35" s="0"/>
+      <c r="ER35" s="0"/>
+      <c r="ES35" s="0"/>
+      <c r="ET35" s="0"/>
+      <c r="EU35" s="0"/>
+      <c r="EV35" s="0"/>
+      <c r="EW35" s="0"/>
+      <c r="EX35" s="0"/>
+      <c r="EY35" s="0"/>
+      <c r="EZ35" s="0"/>
+      <c r="FA35" s="0"/>
+      <c r="FB35" s="0"/>
+      <c r="FC35" s="0"/>
+      <c r="FD35" s="0"/>
+      <c r="FE35" s="0"/>
+      <c r="FF35" s="0"/>
+      <c r="FG35" s="0"/>
+      <c r="FH35" s="0"/>
+      <c r="FI35" s="0"/>
+      <c r="FJ35" s="0"/>
+      <c r="FK35" s="0"/>
+      <c r="FL35" s="0"/>
+      <c r="FM35" s="0"/>
+      <c r="FN35" s="0"/>
+      <c r="FO35" s="0"/>
+      <c r="FP35" s="0"/>
+      <c r="FQ35" s="0"/>
+      <c r="FR35" s="0"/>
+      <c r="FS35" s="0"/>
+      <c r="FT35" s="0"/>
+      <c r="FU35" s="0"/>
+      <c r="FV35" s="0"/>
+      <c r="FW35" s="0"/>
+      <c r="FX35" s="0"/>
+      <c r="FY35" s="0"/>
+      <c r="FZ35" s="0"/>
+      <c r="GA35" s="0"/>
+      <c r="GB35" s="0"/>
+      <c r="GC35" s="0"/>
+      <c r="GD35" s="0"/>
+      <c r="GE35" s="0"/>
+      <c r="GF35" s="0"/>
+      <c r="GG35" s="0"/>
+      <c r="GH35" s="0"/>
+      <c r="GI35" s="0"/>
+      <c r="GJ35" s="0"/>
+      <c r="GK35" s="0"/>
+      <c r="GL35" s="0"/>
+      <c r="GM35" s="0"/>
+      <c r="GN35" s="0"/>
+      <c r="GO35" s="0"/>
+      <c r="GP35" s="0"/>
+      <c r="GQ35" s="0"/>
+      <c r="GR35" s="0"/>
+      <c r="GS35" s="0"/>
+      <c r="GT35" s="0"/>
+      <c r="GU35" s="0"/>
+      <c r="GV35" s="0"/>
+      <c r="GW35" s="0"/>
+      <c r="GX35" s="0"/>
+      <c r="GY35" s="0"/>
+      <c r="GZ35" s="0"/>
+      <c r="HA35" s="0"/>
+      <c r="HB35" s="0"/>
+      <c r="HC35" s="0"/>
+      <c r="HD35" s="0"/>
+      <c r="HE35" s="0"/>
+      <c r="HF35" s="0"/>
+      <c r="HG35" s="0"/>
+      <c r="HH35" s="0"/>
+      <c r="HI35" s="0"/>
+      <c r="HJ35" s="0"/>
+      <c r="HK35" s="0"/>
+      <c r="HL35" s="0"/>
+      <c r="HM35" s="0"/>
+      <c r="HN35" s="0"/>
+      <c r="HO35" s="0"/>
+      <c r="HP35" s="0"/>
+      <c r="HQ35" s="0"/>
+      <c r="HR35" s="0"/>
+      <c r="HS35" s="0"/>
+      <c r="HT35" s="0"/>
+      <c r="HU35" s="0"/>
+      <c r="HV35" s="0"/>
+      <c r="HW35" s="0"/>
+      <c r="HX35" s="0"/>
+      <c r="HY35" s="0"/>
+      <c r="HZ35" s="0"/>
+      <c r="IA35" s="0"/>
+      <c r="IB35" s="0"/>
+      <c r="IC35" s="0"/>
+      <c r="ID35" s="0"/>
+      <c r="IE35" s="0"/>
+      <c r="IF35" s="0"/>
+      <c r="IG35" s="0"/>
+      <c r="IH35" s="0"/>
+      <c r="II35" s="0"/>
+      <c r="IJ35" s="0"/>
+      <c r="IK35" s="0"/>
+      <c r="IL35" s="0"/>
+      <c r="IM35" s="0"/>
+      <c r="IN35" s="0"/>
+      <c r="IO35" s="0"/>
+      <c r="IP35" s="0"/>
+      <c r="IQ35" s="0"/>
+      <c r="IR35" s="0"/>
+      <c r="IS35" s="0"/>
+      <c r="IT35" s="0"/>
+      <c r="IU35" s="0"/>
+      <c r="IV35" s="0"/>
+      <c r="IW35" s="0"/>
+      <c r="IX35" s="0"/>
+      <c r="IY35" s="0"/>
+      <c r="IZ35" s="0"/>
+      <c r="JA35" s="0"/>
+      <c r="JB35" s="0"/>
+      <c r="JC35" s="0"/>
+      <c r="JD35" s="0"/>
+      <c r="JE35" s="0"/>
+      <c r="JF35" s="0"/>
+      <c r="JG35" s="0"/>
+      <c r="JH35" s="0"/>
+      <c r="JI35" s="0"/>
+      <c r="JJ35" s="0"/>
+      <c r="JK35" s="0"/>
+      <c r="JL35" s="0"/>
+      <c r="JM35" s="0"/>
+      <c r="JN35" s="0"/>
+      <c r="JO35" s="0"/>
+      <c r="JP35" s="0"/>
+      <c r="JQ35" s="0"/>
+      <c r="JR35" s="0"/>
+      <c r="JS35" s="0"/>
+      <c r="JT35" s="0"/>
+      <c r="JU35" s="0"/>
+      <c r="JV35" s="0"/>
+      <c r="JW35" s="0"/>
+      <c r="JX35" s="0"/>
+      <c r="JY35" s="0"/>
+      <c r="JZ35" s="0"/>
+      <c r="KA35" s="0"/>
+      <c r="KB35" s="0"/>
+      <c r="KC35" s="0"/>
+      <c r="KD35" s="0"/>
+      <c r="KE35" s="0"/>
+      <c r="KF35" s="0"/>
+      <c r="KG35" s="0"/>
+      <c r="KH35" s="0"/>
+      <c r="KI35" s="0"/>
+      <c r="KJ35" s="0"/>
+      <c r="KK35" s="0"/>
+      <c r="KL35" s="0"/>
+      <c r="KM35" s="0"/>
+      <c r="KN35" s="0"/>
+      <c r="KO35" s="0"/>
+      <c r="KP35" s="0"/>
+      <c r="KQ35" s="0"/>
+      <c r="KR35" s="0"/>
+      <c r="KS35" s="0"/>
+      <c r="KT35" s="0"/>
+      <c r="KU35" s="0"/>
+      <c r="KV35" s="0"/>
+      <c r="KW35" s="0"/>
+      <c r="KX35" s="0"/>
+      <c r="KY35" s="0"/>
+      <c r="KZ35" s="0"/>
+      <c r="LA35" s="0"/>
+      <c r="LB35" s="0"/>
+      <c r="LC35" s="0"/>
+      <c r="LD35" s="0"/>
+      <c r="LE35" s="0"/>
+      <c r="LF35" s="0"/>
+      <c r="LG35" s="0"/>
+      <c r="LH35" s="0"/>
+      <c r="LI35" s="0"/>
+      <c r="LJ35" s="0"/>
+      <c r="LK35" s="0"/>
+      <c r="LL35" s="0"/>
+      <c r="LM35" s="0"/>
+      <c r="LN35" s="0"/>
+      <c r="LO35" s="0"/>
+      <c r="LP35" s="0"/>
+      <c r="LQ35" s="0"/>
+      <c r="LR35" s="0"/>
+      <c r="LS35" s="0"/>
+      <c r="LT35" s="0"/>
+      <c r="LU35" s="0"/>
+      <c r="LV35" s="0"/>
+      <c r="LW35" s="0"/>
+      <c r="LX35" s="0"/>
+      <c r="LY35" s="0"/>
+      <c r="LZ35" s="0"/>
+      <c r="MA35" s="0"/>
+      <c r="MB35" s="0"/>
+      <c r="MC35" s="0"/>
+      <c r="MD35" s="0"/>
+      <c r="ME35" s="0"/>
+      <c r="MF35" s="0"/>
+      <c r="MG35" s="0"/>
+      <c r="MH35" s="0"/>
+      <c r="MI35" s="0"/>
+      <c r="MJ35" s="0"/>
+      <c r="MK35" s="0"/>
+      <c r="ML35" s="0"/>
+      <c r="MM35" s="0"/>
+      <c r="MN35" s="0"/>
+      <c r="MO35" s="0"/>
+      <c r="MP35" s="0"/>
+      <c r="MQ35" s="0"/>
+      <c r="MR35" s="0"/>
+      <c r="MS35" s="0"/>
+      <c r="MT35" s="0"/>
+      <c r="MU35" s="0"/>
+      <c r="MV35" s="0"/>
+      <c r="MW35" s="0"/>
+      <c r="MX35" s="0"/>
+      <c r="MY35" s="0"/>
+      <c r="MZ35" s="0"/>
+      <c r="NA35" s="0"/>
+      <c r="NB35" s="0"/>
+      <c r="NC35" s="0"/>
+      <c r="ND35" s="0"/>
+      <c r="NE35" s="0"/>
+      <c r="NF35" s="0"/>
+      <c r="NG35" s="0"/>
+      <c r="NH35" s="0"/>
+      <c r="NI35" s="0"/>
+      <c r="NJ35" s="0"/>
+      <c r="NK35" s="0"/>
+      <c r="NL35" s="0"/>
+      <c r="NM35" s="0"/>
+      <c r="NN35" s="0"/>
+      <c r="NO35" s="0"/>
+      <c r="NP35" s="0"/>
+      <c r="NQ35" s="0"/>
+      <c r="NR35" s="0"/>
+      <c r="NS35" s="0"/>
+      <c r="NT35" s="0"/>
+      <c r="NU35" s="0"/>
+      <c r="NV35" s="0"/>
+      <c r="NW35" s="0"/>
+      <c r="NX35" s="0"/>
+      <c r="NY35" s="0"/>
+      <c r="NZ35" s="0"/>
+      <c r="OA35" s="0"/>
+      <c r="OB35" s="0"/>
+      <c r="OC35" s="0"/>
+      <c r="OD35" s="0"/>
+      <c r="OE35" s="0"/>
+      <c r="OF35" s="0"/>
+      <c r="OG35" s="0"/>
+      <c r="OH35" s="0"/>
+      <c r="OI35" s="0"/>
+      <c r="OJ35" s="0"/>
+      <c r="OK35" s="0"/>
+      <c r="OL35" s="0"/>
+      <c r="OM35" s="0"/>
+      <c r="ON35" s="0"/>
+      <c r="OO35" s="0"/>
+      <c r="OP35" s="0"/>
+      <c r="OQ35" s="0"/>
+      <c r="OR35" s="0"/>
+      <c r="OS35" s="0"/>
+      <c r="OT35" s="0"/>
+      <c r="OU35" s="0"/>
+      <c r="OV35" s="0"/>
+      <c r="OW35" s="0"/>
+      <c r="OX35" s="0"/>
+      <c r="OY35" s="0"/>
+      <c r="OZ35" s="0"/>
+      <c r="PA35" s="0"/>
+      <c r="PB35" s="0"/>
+      <c r="PC35" s="0"/>
+      <c r="PD35" s="0"/>
+      <c r="PE35" s="0"/>
+      <c r="PF35" s="0"/>
+      <c r="PG35" s="0"/>
+      <c r="PH35" s="0"/>
+      <c r="PI35" s="0"/>
+      <c r="PJ35" s="0"/>
+      <c r="PK35" s="0"/>
+      <c r="PL35" s="0"/>
+      <c r="PM35" s="0"/>
+      <c r="PN35" s="0"/>
+      <c r="PO35" s="0"/>
+      <c r="PP35" s="0"/>
+      <c r="PQ35" s="0"/>
+      <c r="PR35" s="0"/>
+      <c r="PS35" s="0"/>
+      <c r="PT35" s="0"/>
+      <c r="PU35" s="0"/>
+      <c r="PV35" s="0"/>
+      <c r="PW35" s="0"/>
+      <c r="PX35" s="0"/>
+      <c r="PY35" s="0"/>
+      <c r="PZ35" s="0"/>
+      <c r="QA35" s="0"/>
+      <c r="QB35" s="0"/>
+      <c r="QC35" s="0"/>
+      <c r="QD35" s="0"/>
+      <c r="QE35" s="0"/>
+      <c r="QF35" s="0"/>
+      <c r="QG35" s="0"/>
+      <c r="QH35" s="0"/>
+      <c r="QI35" s="0"/>
+      <c r="QJ35" s="0"/>
+      <c r="QK35" s="0"/>
+      <c r="QL35" s="0"/>
+      <c r="QM35" s="0"/>
+      <c r="QN35" s="0"/>
+      <c r="QO35" s="0"/>
+      <c r="QP35" s="0"/>
+      <c r="QQ35" s="0"/>
+      <c r="QR35" s="0"/>
+      <c r="QS35" s="0"/>
+      <c r="QT35" s="0"/>
+      <c r="QU35" s="0"/>
+      <c r="QV35" s="0"/>
+      <c r="QW35" s="0"/>
+      <c r="QX35" s="0"/>
+      <c r="QY35" s="0"/>
+      <c r="QZ35" s="0"/>
+      <c r="RA35" s="0"/>
+      <c r="RB35" s="0"/>
+      <c r="RC35" s="0"/>
+      <c r="RD35" s="0"/>
+      <c r="RE35" s="0"/>
+      <c r="RF35" s="0"/>
+      <c r="RG35" s="0"/>
+      <c r="RH35" s="0"/>
+      <c r="RI35" s="0"/>
+      <c r="RJ35" s="0"/>
+      <c r="RK35" s="0"/>
+      <c r="RL35" s="0"/>
+      <c r="RM35" s="0"/>
+      <c r="RN35" s="0"/>
+      <c r="RO35" s="0"/>
+      <c r="RP35" s="0"/>
+      <c r="RQ35" s="0"/>
+      <c r="RR35" s="0"/>
+      <c r="RS35" s="0"/>
+      <c r="RT35" s="0"/>
+      <c r="RU35" s="0"/>
+      <c r="RV35" s="0"/>
+      <c r="RW35" s="0"/>
+      <c r="RX35" s="0"/>
+      <c r="RY35" s="0"/>
+      <c r="RZ35" s="0"/>
+      <c r="SA35" s="0"/>
+      <c r="SB35" s="0"/>
+      <c r="SC35" s="0"/>
+      <c r="SD35" s="0"/>
+      <c r="SE35" s="0"/>
+      <c r="SF35" s="0"/>
+      <c r="SG35" s="0"/>
+      <c r="SH35" s="0"/>
+      <c r="SI35" s="0"/>
+      <c r="SJ35" s="0"/>
+      <c r="SK35" s="0"/>
+      <c r="SL35" s="0"/>
+      <c r="SM35" s="0"/>
+      <c r="SN35" s="0"/>
+      <c r="SO35" s="0"/>
+      <c r="SP35" s="0"/>
+      <c r="SQ35" s="0"/>
+      <c r="SR35" s="0"/>
+      <c r="SS35" s="0"/>
+      <c r="ST35" s="0"/>
+      <c r="SU35" s="0"/>
+      <c r="SV35" s="0"/>
+      <c r="SW35" s="0"/>
+      <c r="SX35" s="0"/>
+      <c r="SY35" s="0"/>
+      <c r="SZ35" s="0"/>
+      <c r="TA35" s="0"/>
+      <c r="TB35" s="0"/>
+      <c r="TC35" s="0"/>
+      <c r="TD35" s="0"/>
+      <c r="TE35" s="0"/>
+      <c r="TF35" s="0"/>
+      <c r="TG35" s="0"/>
+      <c r="TH35" s="0"/>
+      <c r="TI35" s="0"/>
+      <c r="TJ35" s="0"/>
+      <c r="TK35" s="0"/>
+      <c r="TL35" s="0"/>
+      <c r="TM35" s="0"/>
+      <c r="TN35" s="0"/>
+      <c r="TO35" s="0"/>
+      <c r="TP35" s="0"/>
+      <c r="TQ35" s="0"/>
+      <c r="TR35" s="0"/>
+      <c r="TS35" s="0"/>
+      <c r="TT35" s="0"/>
+      <c r="TU35" s="0"/>
+      <c r="TV35" s="0"/>
+      <c r="TW35" s="0"/>
+      <c r="TX35" s="0"/>
+      <c r="TY35" s="0"/>
+      <c r="TZ35" s="0"/>
+      <c r="UA35" s="0"/>
+      <c r="UB35" s="0"/>
+      <c r="UC35" s="0"/>
+      <c r="UD35" s="0"/>
+      <c r="UE35" s="0"/>
+      <c r="UF35" s="0"/>
+      <c r="UG35" s="0"/>
+      <c r="UH35" s="0"/>
+      <c r="UI35" s="0"/>
+      <c r="UJ35" s="0"/>
+      <c r="UK35" s="0"/>
+      <c r="UL35" s="0"/>
+      <c r="UM35" s="0"/>
+      <c r="UN35" s="0"/>
+      <c r="UO35" s="0"/>
+      <c r="UP35" s="0"/>
+      <c r="UQ35" s="0"/>
+      <c r="UR35" s="0"/>
+      <c r="US35" s="0"/>
+      <c r="UT35" s="0"/>
+      <c r="UU35" s="0"/>
+      <c r="UV35" s="0"/>
+      <c r="UW35" s="0"/>
+      <c r="UX35" s="0"/>
+      <c r="UY35" s="0"/>
+      <c r="UZ35" s="0"/>
+      <c r="VA35" s="0"/>
+      <c r="VB35" s="0"/>
+      <c r="VC35" s="0"/>
+      <c r="VD35" s="0"/>
+      <c r="VE35" s="0"/>
+      <c r="VF35" s="0"/>
+      <c r="VG35" s="0"/>
+      <c r="VH35" s="0"/>
+      <c r="VI35" s="0"/>
+      <c r="VJ35" s="0"/>
+      <c r="VK35" s="0"/>
+      <c r="VL35" s="0"/>
+      <c r="VM35" s="0"/>
+      <c r="VN35" s="0"/>
+      <c r="VO35" s="0"/>
+      <c r="VP35" s="0"/>
+      <c r="VQ35" s="0"/>
+      <c r="VR35" s="0"/>
+      <c r="VS35" s="0"/>
+      <c r="VT35" s="0"/>
+      <c r="VU35" s="0"/>
+      <c r="VV35" s="0"/>
+      <c r="VW35" s="0"/>
+      <c r="VX35" s="0"/>
+      <c r="VY35" s="0"/>
+      <c r="VZ35" s="0"/>
+      <c r="WA35" s="0"/>
+      <c r="WB35" s="0"/>
+      <c r="WC35" s="0"/>
+      <c r="WD35" s="0"/>
+      <c r="WE35" s="0"/>
+      <c r="WF35" s="0"/>
+      <c r="WG35" s="0"/>
+      <c r="WH35" s="0"/>
+      <c r="WI35" s="0"/>
+      <c r="WJ35" s="0"/>
+      <c r="WK35" s="0"/>
+      <c r="WL35" s="0"/>
+      <c r="WM35" s="0"/>
+      <c r="WN35" s="0"/>
+      <c r="WO35" s="0"/>
+      <c r="WP35" s="0"/>
+      <c r="WQ35" s="0"/>
+      <c r="WR35" s="0"/>
+      <c r="WS35" s="0"/>
+      <c r="WT35" s="0"/>
+      <c r="WU35" s="0"/>
+      <c r="WV35" s="0"/>
+      <c r="WW35" s="0"/>
+      <c r="WX35" s="0"/>
+      <c r="WY35" s="0"/>
+      <c r="WZ35" s="0"/>
+      <c r="XA35" s="0"/>
+      <c r="XB35" s="0"/>
+      <c r="XC35" s="0"/>
+      <c r="XD35" s="0"/>
+      <c r="XE35" s="0"/>
+      <c r="XF35" s="0"/>
+      <c r="XG35" s="0"/>
+      <c r="XH35" s="0"/>
+      <c r="XI35" s="0"/>
+      <c r="XJ35" s="0"/>
+      <c r="XK35" s="0"/>
+      <c r="XL35" s="0"/>
+      <c r="XM35" s="0"/>
+      <c r="XN35" s="0"/>
+      <c r="XO35" s="0"/>
+      <c r="XP35" s="0"/>
+      <c r="XQ35" s="0"/>
+      <c r="XR35" s="0"/>
+      <c r="XS35" s="0"/>
+      <c r="XT35" s="0"/>
+      <c r="XU35" s="0"/>
+      <c r="XV35" s="0"/>
+      <c r="XW35" s="0"/>
+      <c r="XX35" s="0"/>
+      <c r="XY35" s="0"/>
+      <c r="XZ35" s="0"/>
+      <c r="YA35" s="0"/>
+      <c r="YB35" s="0"/>
+      <c r="YC35" s="0"/>
+      <c r="YD35" s="0"/>
+      <c r="YE35" s="0"/>
+      <c r="YF35" s="0"/>
+      <c r="YG35" s="0"/>
+      <c r="YH35" s="0"/>
+      <c r="YI35" s="0"/>
+      <c r="YJ35" s="0"/>
+      <c r="YK35" s="0"/>
+      <c r="YL35" s="0"/>
+      <c r="YM35" s="0"/>
+      <c r="YN35" s="0"/>
+      <c r="YO35" s="0"/>
+      <c r="YP35" s="0"/>
+      <c r="YQ35" s="0"/>
+      <c r="YR35" s="0"/>
+      <c r="YS35" s="0"/>
+      <c r="YT35" s="0"/>
+      <c r="YU35" s="0"/>
+      <c r="YV35" s="0"/>
+      <c r="YW35" s="0"/>
+      <c r="YX35" s="0"/>
+      <c r="YY35" s="0"/>
+      <c r="YZ35" s="0"/>
+      <c r="ZA35" s="0"/>
+      <c r="ZB35" s="0"/>
+      <c r="ZC35" s="0"/>
+      <c r="ZD35" s="0"/>
+      <c r="ZE35" s="0"/>
+      <c r="ZF35" s="0"/>
+      <c r="ZG35" s="0"/>
+      <c r="ZH35" s="0"/>
+      <c r="ZI35" s="0"/>
+      <c r="ZJ35" s="0"/>
+      <c r="ZK35" s="0"/>
+      <c r="ZL35" s="0"/>
+      <c r="ZM35" s="0"/>
+      <c r="ZN35" s="0"/>
+      <c r="ZO35" s="0"/>
+      <c r="ZP35" s="0"/>
+      <c r="ZQ35" s="0"/>
+      <c r="ZR35" s="0"/>
+      <c r="ZS35" s="0"/>
+      <c r="ZT35" s="0"/>
+      <c r="ZU35" s="0"/>
+      <c r="ZV35" s="0"/>
+      <c r="ZW35" s="0"/>
+      <c r="ZX35" s="0"/>
+      <c r="ZY35" s="0"/>
+      <c r="ZZ35" s="0"/>
+      <c r="AAA35" s="0"/>
+      <c r="AAB35" s="0"/>
+      <c r="AAC35" s="0"/>
+      <c r="AAD35" s="0"/>
+      <c r="AAE35" s="0"/>
+      <c r="AAF35" s="0"/>
+      <c r="AAG35" s="0"/>
+      <c r="AAH35" s="0"/>
+      <c r="AAI35" s="0"/>
+      <c r="AAJ35" s="0"/>
+      <c r="AAK35" s="0"/>
+      <c r="AAL35" s="0"/>
+      <c r="AAM35" s="0"/>
+      <c r="AAN35" s="0"/>
+      <c r="AAO35" s="0"/>
+      <c r="AAP35" s="0"/>
+      <c r="AAQ35" s="0"/>
+      <c r="AAR35" s="0"/>
+      <c r="AAS35" s="0"/>
+      <c r="AAT35" s="0"/>
+      <c r="AAU35" s="0"/>
+      <c r="AAV35" s="0"/>
+      <c r="AAW35" s="0"/>
+      <c r="AAX35" s="0"/>
+      <c r="AAY35" s="0"/>
+      <c r="AAZ35" s="0"/>
+      <c r="ABA35" s="0"/>
+      <c r="ABB35" s="0"/>
+      <c r="ABC35" s="0"/>
+      <c r="ABD35" s="0"/>
+      <c r="ABE35" s="0"/>
+      <c r="ABF35" s="0"/>
+      <c r="ABG35" s="0"/>
+      <c r="ABH35" s="0"/>
+      <c r="ABI35" s="0"/>
+      <c r="ABJ35" s="0"/>
+      <c r="ABK35" s="0"/>
+      <c r="ABL35" s="0"/>
+      <c r="ABM35" s="0"/>
+      <c r="ABN35" s="0"/>
+      <c r="ABO35" s="0"/>
+      <c r="ABP35" s="0"/>
+      <c r="ABQ35" s="0"/>
+      <c r="ABR35" s="0"/>
+      <c r="ABS35" s="0"/>
+      <c r="ABT35" s="0"/>
+      <c r="ABU35" s="0"/>
+      <c r="ABV35" s="0"/>
+      <c r="ABW35" s="0"/>
+      <c r="ABX35" s="0"/>
+      <c r="ABY35" s="0"/>
+      <c r="ABZ35" s="0"/>
+      <c r="ACA35" s="0"/>
+      <c r="ACB35" s="0"/>
+      <c r="ACC35" s="0"/>
+      <c r="ACD35" s="0"/>
+      <c r="ACE35" s="0"/>
+      <c r="ACF35" s="0"/>
+      <c r="ACG35" s="0"/>
+      <c r="ACH35" s="0"/>
+      <c r="ACI35" s="0"/>
+      <c r="ACJ35" s="0"/>
+      <c r="ACK35" s="0"/>
+      <c r="ACL35" s="0"/>
+      <c r="ACM35" s="0"/>
+      <c r="ACN35" s="0"/>
+      <c r="ACO35" s="0"/>
+      <c r="ACP35" s="0"/>
+      <c r="ACQ35" s="0"/>
+      <c r="ACR35" s="0"/>
+      <c r="ACS35" s="0"/>
+      <c r="ACT35" s="0"/>
+      <c r="ACU35" s="0"/>
+      <c r="ACV35" s="0"/>
+      <c r="ACW35" s="0"/>
+      <c r="ACX35" s="0"/>
+      <c r="ACY35" s="0"/>
+      <c r="ACZ35" s="0"/>
+      <c r="ADA35" s="0"/>
+      <c r="ADB35" s="0"/>
+      <c r="ADC35" s="0"/>
+      <c r="ADD35" s="0"/>
+      <c r="ADE35" s="0"/>
+      <c r="ADF35" s="0"/>
+      <c r="ADG35" s="0"/>
+      <c r="ADH35" s="0"/>
+      <c r="ADI35" s="0"/>
+      <c r="ADJ35" s="0"/>
+      <c r="ADK35" s="0"/>
+      <c r="ADL35" s="0"/>
+      <c r="ADM35" s="0"/>
+      <c r="ADN35" s="0"/>
+      <c r="ADO35" s="0"/>
+      <c r="ADP35" s="0"/>
+      <c r="ADQ35" s="0"/>
+      <c r="ADR35" s="0"/>
+      <c r="ADS35" s="0"/>
+      <c r="ADT35" s="0"/>
+      <c r="ADU35" s="0"/>
+      <c r="ADV35" s="0"/>
+      <c r="ADW35" s="0"/>
+      <c r="ADX35" s="0"/>
+      <c r="ADY35" s="0"/>
+      <c r="ADZ35" s="0"/>
+      <c r="AEA35" s="0"/>
+      <c r="AEB35" s="0"/>
+      <c r="AEC35" s="0"/>
+      <c r="AED35" s="0"/>
+      <c r="AEE35" s="0"/>
+      <c r="AEF35" s="0"/>
+      <c r="AEG35" s="0"/>
+      <c r="AEH35" s="0"/>
+      <c r="AEI35" s="0"/>
+      <c r="AEJ35" s="0"/>
+      <c r="AEK35" s="0"/>
+      <c r="AEL35" s="0"/>
+      <c r="AEM35" s="0"/>
+      <c r="AEN35" s="0"/>
+      <c r="AEO35" s="0"/>
+      <c r="AEP35" s="0"/>
+      <c r="AEQ35" s="0"/>
+      <c r="AER35" s="0"/>
+      <c r="AES35" s="0"/>
+      <c r="AET35" s="0"/>
+      <c r="AEU35" s="0"/>
+      <c r="AEV35" s="0"/>
+      <c r="AEW35" s="0"/>
+      <c r="AEX35" s="0"/>
+      <c r="AEY35" s="0"/>
+      <c r="AEZ35" s="0"/>
+      <c r="AFA35" s="0"/>
+      <c r="AFB35" s="0"/>
+      <c r="AFC35" s="0"/>
+      <c r="AFD35" s="0"/>
+      <c r="AFE35" s="0"/>
+      <c r="AFF35" s="0"/>
+      <c r="AFG35" s="0"/>
+      <c r="AFH35" s="0"/>
+      <c r="AFI35" s="0"/>
+      <c r="AFJ35" s="0"/>
+      <c r="AFK35" s="0"/>
+      <c r="AFL35" s="0"/>
+      <c r="AFM35" s="0"/>
+      <c r="AFN35" s="0"/>
+      <c r="AFO35" s="0"/>
+      <c r="AFP35" s="0"/>
+      <c r="AFQ35" s="0"/>
+      <c r="AFR35" s="0"/>
+      <c r="AFS35" s="0"/>
+      <c r="AFT35" s="0"/>
+      <c r="AFU35" s="0"/>
+      <c r="AFV35" s="0"/>
+      <c r="AFW35" s="0"/>
+      <c r="AFX35" s="0"/>
+      <c r="AFY35" s="0"/>
+      <c r="AFZ35" s="0"/>
+      <c r="AGA35" s="0"/>
+      <c r="AGB35" s="0"/>
+      <c r="AGC35" s="0"/>
+      <c r="AGD35" s="0"/>
+      <c r="AGE35" s="0"/>
+      <c r="AGF35" s="0"/>
+      <c r="AGG35" s="0"/>
+      <c r="AGH35" s="0"/>
+      <c r="AGI35" s="0"/>
+      <c r="AGJ35" s="0"/>
+      <c r="AGK35" s="0"/>
+      <c r="AGL35" s="0"/>
+      <c r="AGM35" s="0"/>
+      <c r="AGN35" s="0"/>
+      <c r="AGO35" s="0"/>
+      <c r="AGP35" s="0"/>
+      <c r="AGQ35" s="0"/>
+      <c r="AGR35" s="0"/>
+      <c r="AGS35" s="0"/>
+      <c r="AGT35" s="0"/>
+      <c r="AGU35" s="0"/>
+      <c r="AGV35" s="0"/>
+      <c r="AGW35" s="0"/>
+      <c r="AGX35" s="0"/>
+      <c r="AGY35" s="0"/>
+      <c r="AGZ35" s="0"/>
+      <c r="AHA35" s="0"/>
+      <c r="AHB35" s="0"/>
+      <c r="AHC35" s="0"/>
+      <c r="AHD35" s="0"/>
+      <c r="AHE35" s="0"/>
+      <c r="AHF35" s="0"/>
+      <c r="AHG35" s="0"/>
+      <c r="AHH35" s="0"/>
+      <c r="AHI35" s="0"/>
+      <c r="AHJ35" s="0"/>
+      <c r="AHK35" s="0"/>
+      <c r="AHL35" s="0"/>
+      <c r="AHM35" s="0"/>
+      <c r="AHN35" s="0"/>
+      <c r="AHO35" s="0"/>
+      <c r="AHP35" s="0"/>
+      <c r="AHQ35" s="0"/>
+      <c r="AHR35" s="0"/>
+      <c r="AHS35" s="0"/>
+      <c r="AHT35" s="0"/>
+      <c r="AHU35" s="0"/>
+      <c r="AHV35" s="0"/>
+      <c r="AHW35" s="0"/>
+      <c r="AHX35" s="0"/>
+      <c r="AHY35" s="0"/>
+      <c r="AHZ35" s="0"/>
+      <c r="AIA35" s="0"/>
+      <c r="AIB35" s="0"/>
+      <c r="AIC35" s="0"/>
+      <c r="AID35" s="0"/>
+      <c r="AIE35" s="0"/>
+      <c r="AIF35" s="0"/>
+      <c r="AIG35" s="0"/>
+      <c r="AIH35" s="0"/>
+      <c r="AII35" s="0"/>
+      <c r="AIJ35" s="0"/>
+      <c r="AIK35" s="0"/>
+      <c r="AIL35" s="0"/>
+      <c r="AIM35" s="0"/>
+      <c r="AIN35" s="0"/>
+      <c r="AIO35" s="0"/>
+      <c r="AIP35" s="0"/>
+      <c r="AIQ35" s="0"/>
+      <c r="AIR35" s="0"/>
+      <c r="AIS35" s="0"/>
+      <c r="AIT35" s="0"/>
+      <c r="AIU35" s="0"/>
+      <c r="AIV35" s="0"/>
+      <c r="AIW35" s="0"/>
+      <c r="AIX35" s="0"/>
+      <c r="AIY35" s="0"/>
+      <c r="AIZ35" s="0"/>
+      <c r="AJA35" s="0"/>
+      <c r="AJB35" s="0"/>
+      <c r="AJC35" s="0"/>
+      <c r="AJD35" s="0"/>
+      <c r="AJE35" s="0"/>
+      <c r="AJF35" s="0"/>
+      <c r="AJG35" s="0"/>
+      <c r="AJH35" s="0"/>
+      <c r="AJI35" s="0"/>
+      <c r="AJJ35" s="0"/>
+      <c r="AJK35" s="0"/>
+      <c r="AJL35" s="0"/>
+      <c r="AJM35" s="0"/>
+      <c r="AJN35" s="0"/>
+      <c r="AJO35" s="0"/>
+      <c r="AJP35" s="0"/>
+      <c r="AJQ35" s="0"/>
+      <c r="AJR35" s="0"/>
+      <c r="AJS35" s="0"/>
+      <c r="AJT35" s="0"/>
+      <c r="AJU35" s="0"/>
+      <c r="AJV35" s="0"/>
+      <c r="AJW35" s="0"/>
+      <c r="AJX35" s="0"/>
+      <c r="AJY35" s="0"/>
+      <c r="AJZ35" s="0"/>
+      <c r="AKA35" s="0"/>
+      <c r="AKB35" s="0"/>
+      <c r="AKC35" s="0"/>
+      <c r="AKD35" s="0"/>
+      <c r="AKE35" s="0"/>
+      <c r="AKF35" s="0"/>
+      <c r="AKG35" s="0"/>
+      <c r="AKH35" s="0"/>
+      <c r="AKI35" s="0"/>
+      <c r="AKJ35" s="0"/>
+      <c r="AKK35" s="0"/>
+      <c r="AKL35" s="0"/>
+      <c r="AKM35" s="0"/>
+      <c r="AKN35" s="0"/>
+      <c r="AKO35" s="0"/>
+      <c r="AKP35" s="0"/>
+      <c r="AKQ35" s="0"/>
+      <c r="AKR35" s="0"/>
+      <c r="AKS35" s="0"/>
+      <c r="AKT35" s="0"/>
+      <c r="AKU35" s="0"/>
+      <c r="AKV35" s="0"/>
+      <c r="AKW35" s="0"/>
+      <c r="AKX35" s="0"/>
+      <c r="AKY35" s="0"/>
+      <c r="AKZ35" s="0"/>
+      <c r="ALA35" s="0"/>
+      <c r="ALB35" s="0"/>
+      <c r="ALC35" s="0"/>
+      <c r="ALD35" s="0"/>
+      <c r="ALE35" s="0"/>
+      <c r="ALF35" s="0"/>
+      <c r="ALG35" s="0"/>
+      <c r="ALH35" s="0"/>
+      <c r="ALI35" s="0"/>
+      <c r="ALJ35" s="0"/>
+      <c r="ALK35" s="0"/>
+      <c r="ALL35" s="0"/>
+      <c r="ALM35" s="0"/>
+      <c r="ALN35" s="0"/>
+      <c r="ALO35" s="0"/>
+      <c r="ALP35" s="0"/>
+      <c r="ALQ35" s="0"/>
+      <c r="ALR35" s="0"/>
+      <c r="ALS35" s="0"/>
+      <c r="ALT35" s="0"/>
+      <c r="ALU35" s="0"/>
+      <c r="ALV35" s="0"/>
+      <c r="ALW35" s="0"/>
+      <c r="ALX35" s="0"/>
+      <c r="ALY35" s="0"/>
+      <c r="ALZ35" s="0"/>
+      <c r="AMA35" s="0"/>
+      <c r="AMB35" s="0"/>
+      <c r="AMC35" s="0"/>
+      <c r="AMD35" s="0"/>
+      <c r="AME35" s="0"/>
+      <c r="AMF35" s="0"/>
+      <c r="AMG35" s="0"/>
+      <c r="AMH35" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
